--- a/content/post/2025-04-12-movies/data/观影记录.xlsx
+++ b/content/post/2025-04-12-movies/data/观影记录.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>表格 1</t>
   </si>
   <si>
-    <t>观影年份</t>
+    <t>观影</t>
   </si>
   <si>
     <t>影片</t>
@@ -29,838 +29,841 @@
     <t>国家</t>
   </si>
   <si>
+    <t>上映</t>
+  </si>
+  <si>
+    <t>演员</t>
+  </si>
+  <si>
+    <t>豆瓣ID</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>评价</t>
+  </si>
+  <si>
+    <t>白日焰火</t>
+  </si>
+  <si>
+    <t>刁亦男</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>廖凡 / 桂纶镁 / 王学兵</t>
+  </si>
+  <si>
+    <t>悬疑犯罪</t>
+  </si>
+  <si>
+    <t>推荐</t>
+  </si>
+  <si>
+    <t>高山上的花环</t>
+  </si>
+  <si>
+    <t>谢晋</t>
+  </si>
+  <si>
+    <t>唐国强 / 倪大红 / 斯琴高娃</t>
+  </si>
+  <si>
+    <t>改编自同名小说</t>
+  </si>
+  <si>
+    <t>埃贡·席勒：过度</t>
+  </si>
+  <si>
+    <t>赫伯特·维斯利</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>马蒂厄·卡里埃 / 简·伯金</t>
+  </si>
+  <si>
+    <t>人物传记</t>
+  </si>
+  <si>
+    <t>阿Q正传</t>
+  </si>
+  <si>
+    <t>岑范</t>
+  </si>
+  <si>
+    <t>严顺开</t>
+  </si>
+  <si>
+    <t>孔乙己</t>
+  </si>
+  <si>
+    <t>郭小男</t>
+  </si>
+  <si>
+    <t>茅威涛</t>
+  </si>
+  <si>
+    <t>改编自同名小说，越剧</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>白鲸</t>
+  </si>
+  <si>
+    <t>米勒德·韦布</t>
+  </si>
+  <si>
+    <t>约翰·巴里摩尔 / 多洛雷斯·卡斯特洛</t>
+  </si>
+  <si>
+    <t>百鸟朝凤</t>
+  </si>
+  <si>
+    <t>吴天明</t>
+  </si>
+  <si>
+    <t>陶泽如</t>
+  </si>
+  <si>
+    <t>大明劫</t>
+  </si>
+  <si>
+    <t>王竞</t>
+  </si>
+  <si>
+    <t>冯远征</t>
+  </si>
+  <si>
+    <t>明崇祯末年社会矛盾</t>
+  </si>
+  <si>
+    <t>秘密会议</t>
+  </si>
+  <si>
+    <t>爱德华·贝尔格</t>
+  </si>
+  <si>
+    <t>拉尔夫·费因斯</t>
+  </si>
+  <si>
+    <t>宗教信仰在传统和现代间抉择</t>
+  </si>
+  <si>
+    <t>教宗的承继</t>
+  </si>
+  <si>
+    <t>费尔南多·梅里尔斯</t>
+  </si>
+  <si>
+    <t>安东尼·霍普金斯</t>
+  </si>
+  <si>
+    <t>宗教信仰</t>
+  </si>
+  <si>
+    <t>天国王朝</t>
+  </si>
+  <si>
+    <t>雷德利·斯科特</t>
+  </si>
+  <si>
+    <t>奥兰多·布鲁姆</t>
+  </si>
+  <si>
+    <t>反贪风暴：最终章</t>
+  </si>
+  <si>
+    <t>林德禄</t>
+  </si>
+  <si>
+    <t>古天乐 / 张智霖</t>
+  </si>
+  <si>
+    <t>政治宣传</t>
+  </si>
+  <si>
+    <t>飓风营救</t>
+  </si>
+  <si>
+    <t>皮埃尔·莫瑞尔</t>
+  </si>
+  <si>
+    <t>连姆·尼森</t>
+  </si>
+  <si>
+    <t>动作片</t>
+  </si>
+  <si>
+    <t>飓风营救2</t>
+  </si>
+  <si>
+    <t>奥利维尔·米加顿</t>
+  </si>
+  <si>
+    <t>七宗罪</t>
+  </si>
+  <si>
+    <t>大卫·芬奇</t>
+  </si>
+  <si>
+    <t>摩根·弗里曼</t>
+  </si>
+  <si>
+    <t>鬼子来了</t>
+  </si>
+  <si>
+    <t>姜文</t>
+  </si>
+  <si>
+    <t>喜剧</t>
+  </si>
+  <si>
+    <t>鬼叫春</t>
+  </si>
+  <si>
+    <t>李翰祥</t>
+  </si>
+  <si>
+    <t>岳华、胡锦、余莎莉</t>
+  </si>
+  <si>
+    <t>惊悚</t>
+  </si>
+  <si>
+    <t>天师斗僵尸</t>
+  </si>
+  <si>
+    <t>王晶</t>
+  </si>
+  <si>
+    <t>郑中基/元彪</t>
+  </si>
+  <si>
+    <t>铁血昆仑关</t>
+  </si>
+  <si>
+    <t>杨光远</t>
+  </si>
+  <si>
+    <t>马绍信</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
+    <t>新仙鹤神针</t>
+  </si>
+  <si>
+    <t>陈木胜</t>
+  </si>
+  <si>
+    <t>梁朝伟</t>
+  </si>
+  <si>
+    <t>武侠</t>
+  </si>
+  <si>
+    <t>平凡岁月的魅力</t>
+  </si>
+  <si>
+    <t>布兰特·席尔兹</t>
+  </si>
+  <si>
+    <t>凯丽·拉塞尔</t>
+  </si>
+  <si>
+    <t>爱情是什么</t>
+  </si>
+  <si>
+    <t>非常推荐</t>
+  </si>
+  <si>
+    <t>欲望的果实</t>
+  </si>
+  <si>
+    <t>詹路易吉·卡尔代罗内</t>
+  </si>
+  <si>
+    <t>加布里埃尔·费泽蒂 / 奥内拉·穆蒂</t>
+  </si>
+  <si>
+    <t>教室别恋</t>
+  </si>
+  <si>
+    <t>波·维德伯格</t>
+  </si>
+  <si>
+    <t>约翰·维德伯格</t>
+  </si>
+  <si>
+    <t>信天游</t>
+  </si>
+  <si>
+    <t>冯小宁</t>
+  </si>
+  <si>
+    <t>郭达</t>
+  </si>
+  <si>
+    <t>周恩来</t>
+  </si>
+  <si>
+    <t>丁荫楠</t>
+  </si>
+  <si>
+    <t>王铁成</t>
+  </si>
+  <si>
+    <t>与狼共舞</t>
+  </si>
+  <si>
+    <t>凯文•科斯特纳</t>
+  </si>
+  <si>
+    <t>西部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小巷名流 </t>
+  </si>
+  <si>
+    <t>从连文</t>
+  </si>
+  <si>
+    <t>葛建军 / 任伟民 / 孙才华</t>
+  </si>
+  <si>
+    <t>文革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巴山夜雨 </t>
+  </si>
+  <si>
+    <t>吴永刚 / 吴贻弓</t>
+  </si>
+  <si>
+    <t>李志舆 / 张瑜 / 林彬</t>
+  </si>
+  <si>
+    <t>文革后期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天云山传奇 </t>
+  </si>
+  <si>
+    <t>石维坚 / 施建岚 / 王馥荔</t>
+  </si>
+  <si>
+    <t>伤痕文学</t>
+  </si>
+  <si>
+    <t>西安事变</t>
+  </si>
+  <si>
+    <t>成荫</t>
+  </si>
+  <si>
+    <t>金安歌 / 辛静 / 孙飞虎</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>血战台儿庄</t>
+  </si>
+  <si>
+    <t>杨光远 / 翟俊杰</t>
+  </si>
+  <si>
+    <t>邵宏来 / 初国良 / 江化霖</t>
+  </si>
+  <si>
+    <t>政治宣传片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悬崖之上 </t>
+  </si>
+  <si>
+    <t>张艺谋</t>
+  </si>
+  <si>
+    <t>张译 / 于和伟 / 秦海璐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无双 </t>
+  </si>
+  <si>
+    <t>庄文强</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周润发 / 郭富城 / 张静初 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">埃及艳后 </t>
+  </si>
+  <si>
+    <t>约瑟夫·L·曼凯维奇</t>
+  </si>
+  <si>
+    <t>伊丽莎白·泰勒 / 理查德·伯顿 / 雷克斯·哈里森</t>
+  </si>
+  <si>
+    <t>历史传记</t>
+  </si>
+  <si>
+    <t>除暴</t>
+  </si>
+  <si>
+    <t>刘浩良</t>
+  </si>
+  <si>
+    <t>王千源 / 吴彦祖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白虎 </t>
+  </si>
+  <si>
+    <t>卡连·沙赫纳扎罗夫</t>
+  </si>
+  <si>
+    <t>阿列克谢·沃特考夫 / 维塔利·基什琴科</t>
+  </si>
+  <si>
+    <t>战争片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柏林之翼 </t>
+  </si>
+  <si>
+    <t>康斯坦丁·布罗斯洛夫</t>
+  </si>
+  <si>
+    <t>叶夫根尼· 安德罗波夫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">窃听风云 </t>
+  </si>
+  <si>
+    <t>麦兆辉 / 庄文强</t>
+  </si>
+  <si>
+    <t>刘青云 / 古天乐 / 吴彦祖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新报仇  </t>
+  </si>
+  <si>
+    <t>庄胤建</t>
+  </si>
+  <si>
+    <t>刘锡明 / 张丰毅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苦月亮 </t>
+  </si>
+  <si>
+    <t>罗曼·波兰斯基</t>
+  </si>
+  <si>
+    <t>彼德·考约特 / 艾玛纽尔·塞尼耶</t>
+  </si>
+  <si>
+    <t>爱情片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一树梨花压海棠 </t>
+  </si>
+  <si>
+    <t>阿德里安·莱恩</t>
+  </si>
+  <si>
+    <t>杰瑞米·艾恩斯 / 多米尼克·斯万</t>
+  </si>
+  <si>
+    <t>纳博科夫的小说</t>
+  </si>
+  <si>
+    <t xml:space="preserve">带珍珠耳环的少女 </t>
+  </si>
+  <si>
+    <t>彼得·韦柏</t>
+  </si>
+  <si>
+    <t>科林·费尔斯 / 斯嘉丽·约翰逊</t>
+  </si>
+  <si>
+    <t>维米尔传记</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潜行 </t>
+  </si>
+  <si>
+    <t>关智耀</t>
+  </si>
+  <si>
+    <t>刘德华 / 林家栋 / 彭于晏</t>
+  </si>
+  <si>
+    <t>警匪片</t>
+  </si>
+  <si>
+    <t>黄金三镖客</t>
+  </si>
+  <si>
+    <t>赛尔乔·莱昂内</t>
+  </si>
+  <si>
+    <t>克林特·伊斯特伍德 / 伊莱·瓦拉赫 / 李·范·克里夫</t>
+  </si>
+  <si>
+    <t>西部片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周处除三害 </t>
+  </si>
+  <si>
+    <t>黄精甫</t>
+  </si>
+  <si>
+    <t>阮经天</t>
+  </si>
+  <si>
+    <t>反邪教</t>
+  </si>
+  <si>
+    <t xml:space="preserve">裂战 </t>
+  </si>
+  <si>
+    <t>关越</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安志杰 / 释彦能 / 李梦 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">木乃伊归来 </t>
+  </si>
+  <si>
+    <t>斯蒂芬·索莫斯</t>
+  </si>
+  <si>
+    <t>布兰登·费舍 / 蕾切尔·薇兹 / 约翰·汉纳</t>
+  </si>
+  <si>
+    <t>奇幻动作片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三大队 </t>
+  </si>
+  <si>
+    <t>戴墨</t>
+  </si>
+  <si>
+    <t>张译 / 李晨 / 魏晨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伏击 </t>
+  </si>
+  <si>
+    <t>Mark Burman</t>
+  </si>
+  <si>
+    <t>乔纳森·莱斯·梅耶斯 / 艾伦·艾克哈特</t>
+  </si>
+  <si>
+    <t>新威龙杀阵</t>
+  </si>
+  <si>
+    <t>道格·里曼</t>
+  </si>
+  <si>
+    <t>杰克·吉伦哈尔 / 康纳·麦格雷戈</t>
+  </si>
+  <si>
+    <t>金瓶风月</t>
+  </si>
+  <si>
+    <t>单立文、方玉婷</t>
+  </si>
+  <si>
+    <t>风月奇谭</t>
+  </si>
+  <si>
+    <t>王琛 / 刘午琪 / 贝蒂</t>
+  </si>
+  <si>
+    <t>爱奴</t>
+  </si>
+  <si>
+    <t>楚原</t>
+  </si>
+  <si>
+    <t>何莉莉 / 岳华 / 贝蒂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为奴十二年 </t>
+  </si>
+  <si>
+    <t>史蒂夫·麦奎因</t>
+  </si>
+  <si>
+    <t>切瓦特·埃加福 / 迈克尔·法斯宾德</t>
+  </si>
+  <si>
+    <t>传记历史</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肖申克的救赎 </t>
+  </si>
+  <si>
+    <t>弗兰克·德拉邦特</t>
+  </si>
+  <si>
+    <t>蒂姆·罗宾斯 / 摩根·弗里曼</t>
+  </si>
+  <si>
+    <t>文艺片</t>
+  </si>
+  <si>
+    <t>罗马假日</t>
+  </si>
+  <si>
+    <t>威廉·惠勒</t>
+  </si>
+  <si>
+    <t>奥黛丽·赫本 / 格利高里·派克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">午夜巴黎 </t>
+  </si>
+  <si>
+    <t>伍迪·艾伦</t>
+  </si>
+  <si>
+    <t>欧文·威尔逊 / 玛丽昂·歌迪亚 / 瑞秋·麦克亚当斯</t>
+  </si>
+  <si>
+    <t>法国艺术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">午夜巴塞罗那 </t>
+  </si>
+  <si>
+    <t>丽贝卡·豪尔 / 斯嘉丽·约翰逊 / 哈维尔·巴登</t>
+  </si>
+  <si>
+    <t>西班牙艺术</t>
+  </si>
+  <si>
+    <t>逃学威龙</t>
+  </si>
+  <si>
+    <t>陈嘉上</t>
+  </si>
+  <si>
+    <t>周星驰 / 张敏 / 吴孟达</t>
+  </si>
+  <si>
+    <t>功夫熊猫4</t>
+  </si>
+  <si>
+    <t>迈克·米切尔 / 斯蒂芬妮·斯汀</t>
+  </si>
+  <si>
+    <t>杰克·布莱克 / 奥卡菲娜</t>
+  </si>
+  <si>
+    <t>天注定</t>
+  </si>
+  <si>
+    <t>贾樟柯</t>
+  </si>
+  <si>
+    <t>姜武、王宝强</t>
+  </si>
+  <si>
+    <t>犯罪片</t>
+  </si>
+  <si>
+    <t>黑白迷宫</t>
+  </si>
+  <si>
+    <t>阚家伟</t>
+  </si>
+  <si>
+    <t>任达华 / 陈小春</t>
+  </si>
+  <si>
+    <t>哥斯拉大战金刚2</t>
+  </si>
+  <si>
+    <t>亚当·温加德</t>
+  </si>
+  <si>
+    <t>丽贝卡·豪尔 / 布莱恩·泰里·亨利</t>
+  </si>
+  <si>
+    <t>猩球崛起 4</t>
+  </si>
+  <si>
+    <t>韦斯·鲍尔</t>
+  </si>
+  <si>
+    <t>欧文·提格 / 弗蕾娅·艾伦</t>
+  </si>
+  <si>
+    <t>圣母 Benedetta</t>
+  </si>
+  <si>
+    <t>保罗·范霍文</t>
+  </si>
+  <si>
+    <t>维尔日妮·埃菲拉</t>
+  </si>
+  <si>
+    <t>枪火</t>
+  </si>
+  <si>
+    <t>杜琪峰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴镇宇 / 任达华 / 黄秋生 </t>
+  </si>
+  <si>
+    <t>放逐</t>
+  </si>
+  <si>
+    <t>黄秋生 / 吴镇宇 / 张家辉</t>
+  </si>
+  <si>
+    <t>黑社会</t>
+  </si>
+  <si>
+    <t>任达华 / 梁家辉 / 古天乐</t>
+  </si>
+  <si>
+    <t>黑社会2：以和为贵</t>
+  </si>
+  <si>
+    <t>古天乐 / 任达华 / 张家辉 / 林家栋</t>
+  </si>
+  <si>
+    <t>黑金</t>
+  </si>
+  <si>
+    <t>麦当杰</t>
+  </si>
+  <si>
+    <t>刘德华 / 梁家辉</t>
+  </si>
+  <si>
+    <t>前哨</t>
+  </si>
+  <si>
+    <t>罗德·拉里</t>
+  </si>
+  <si>
+    <t>斯科特·伊斯特伍德 / 奥兰多·布鲁姆</t>
+  </si>
+  <si>
+    <t>血战摩苏尔</t>
+  </si>
+  <si>
+    <t>马修·迈克尔·卡纳汉</t>
+  </si>
+  <si>
+    <t>瓦利德·埃尔加迪</t>
+  </si>
+  <si>
+    <t>生化危机</t>
+  </si>
+  <si>
+    <t>保罗·安德森</t>
+  </si>
+  <si>
+    <t>米拉·乔沃维奇 / 米歇尔·罗德里格兹</t>
+  </si>
+  <si>
+    <t>扫黑·决不放弃</t>
+  </si>
+  <si>
+    <t>五百</t>
+  </si>
+  <si>
+    <t>肖央 / 余皑磊 / 范丞丞</t>
+  </si>
+  <si>
+    <t>金手指</t>
+  </si>
+  <si>
+    <t>梁朝伟 / 刘德华 / 蔡卓妍 / 任达华</t>
+  </si>
+  <si>
+    <t>艺术的逃难</t>
+  </si>
+  <si>
+    <t>丰子恺的逃难记录</t>
+  </si>
+  <si>
+    <t>隐者山河</t>
+  </si>
+  <si>
+    <t>郭旭锋</t>
+  </si>
+  <si>
+    <t>陈其钢</t>
+  </si>
+  <si>
+    <t>陈其钢的隐逸记录</t>
+  </si>
+  <si>
+    <t>一句顶一万句</t>
+  </si>
+  <si>
+    <t>刘雨霖</t>
+  </si>
+  <si>
+    <t>毛孩 / 李倩 / 刘蓓 / 范伟</t>
+  </si>
+  <si>
+    <t>改编自刘震云同名小说</t>
+  </si>
+  <si>
+    <t>变脸</t>
+  </si>
+  <si>
+    <t>朱旭 / 周任莹 / 赵志刚</t>
+  </si>
+  <si>
+    <t>艺术片</t>
+  </si>
+  <si>
+    <t>绝地追击</t>
+  </si>
+  <si>
+    <t>邱礼涛</t>
+  </si>
+  <si>
+    <t>欧豪 / 谷嘉诚 / 俞灏明</t>
+  </si>
+  <si>
+    <t>坚如磐石</t>
+  </si>
+  <si>
+    <t>雷佳音 / 张国立 / 于和伟 / 周冬雨</t>
+  </si>
+  <si>
+    <t>观看年份</t>
+  </si>
+  <si>
+    <t>剧名</t>
+  </si>
+  <si>
     <t>上映年份</t>
-  </si>
-  <si>
-    <t>演员</t>
-  </si>
-  <si>
-    <t>豆瓣ID</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>评价</t>
-  </si>
-  <si>
-    <t>白日焰火</t>
-  </si>
-  <si>
-    <t>刁亦男</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>廖凡 / 桂纶镁 / 王学兵</t>
-  </si>
-  <si>
-    <t>悬疑犯罪</t>
-  </si>
-  <si>
-    <t>推荐</t>
-  </si>
-  <si>
-    <t>高山上的花环</t>
-  </si>
-  <si>
-    <t>谢晋</t>
-  </si>
-  <si>
-    <t>唐国强 / 倪大红 / 斯琴高娃</t>
-  </si>
-  <si>
-    <t>改编自同名小说</t>
-  </si>
-  <si>
-    <t>埃贡·席勒：过度</t>
-  </si>
-  <si>
-    <t>赫伯特·维斯利</t>
-  </si>
-  <si>
-    <t>外国</t>
-  </si>
-  <si>
-    <t>马蒂厄·卡里埃 / 简·伯金</t>
-  </si>
-  <si>
-    <t>人物传记</t>
-  </si>
-  <si>
-    <t>阿Q正传</t>
-  </si>
-  <si>
-    <t>岑范</t>
-  </si>
-  <si>
-    <t>严顺开</t>
-  </si>
-  <si>
-    <t>孔乙己</t>
-  </si>
-  <si>
-    <t>郭小男</t>
-  </si>
-  <si>
-    <t>茅威涛</t>
-  </si>
-  <si>
-    <t>改编自同名小说，越剧</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>白鲸</t>
-  </si>
-  <si>
-    <t>米勒德·韦布</t>
-  </si>
-  <si>
-    <t>约翰·巴里摩尔 / 多洛雷斯·卡斯特洛</t>
-  </si>
-  <si>
-    <t>百鸟朝凤</t>
-  </si>
-  <si>
-    <t>吴天明</t>
-  </si>
-  <si>
-    <t>陶泽如</t>
-  </si>
-  <si>
-    <t>大明劫</t>
-  </si>
-  <si>
-    <t>王竞</t>
-  </si>
-  <si>
-    <t>冯远征</t>
-  </si>
-  <si>
-    <t>明崇祯末年社会矛盾</t>
-  </si>
-  <si>
-    <t>秘密会议</t>
-  </si>
-  <si>
-    <t>爱德华·贝尔格</t>
-  </si>
-  <si>
-    <t>拉尔夫·费因斯</t>
-  </si>
-  <si>
-    <t>宗教信仰在传统和现代间抉择</t>
-  </si>
-  <si>
-    <t>教宗的承继</t>
-  </si>
-  <si>
-    <t>费尔南多·梅里尔斯</t>
-  </si>
-  <si>
-    <t>安东尼·霍普金斯</t>
-  </si>
-  <si>
-    <t>宗教信仰</t>
-  </si>
-  <si>
-    <t>天国王朝</t>
-  </si>
-  <si>
-    <t>雷德利·斯科特</t>
-  </si>
-  <si>
-    <t>奥兰多·布鲁姆</t>
-  </si>
-  <si>
-    <t>反贪风暴：最终章</t>
-  </si>
-  <si>
-    <t>林德禄</t>
-  </si>
-  <si>
-    <t>古天乐 / 张智霖</t>
-  </si>
-  <si>
-    <t>政治宣传</t>
-  </si>
-  <si>
-    <t>飓风营救</t>
-  </si>
-  <si>
-    <t>皮埃尔·莫瑞尔</t>
-  </si>
-  <si>
-    <t>连姆·尼森</t>
-  </si>
-  <si>
-    <t>动作片</t>
-  </si>
-  <si>
-    <t>飓风营救2</t>
-  </si>
-  <si>
-    <t>奥利维尔·米加顿</t>
-  </si>
-  <si>
-    <t>七宗罪</t>
-  </si>
-  <si>
-    <t>大卫·芬奇</t>
-  </si>
-  <si>
-    <t>摩根·弗里曼</t>
-  </si>
-  <si>
-    <t>鬼子来了</t>
-  </si>
-  <si>
-    <t>姜文</t>
-  </si>
-  <si>
-    <t>喜剧</t>
-  </si>
-  <si>
-    <t>鬼叫春</t>
-  </si>
-  <si>
-    <t>李翰祥</t>
-  </si>
-  <si>
-    <t>岳华、胡锦、余莎莉</t>
-  </si>
-  <si>
-    <t>惊悚</t>
-  </si>
-  <si>
-    <t>天师斗僵尸</t>
-  </si>
-  <si>
-    <t>王晶</t>
-  </si>
-  <si>
-    <t>郑中基/元彪</t>
-  </si>
-  <si>
-    <t>铁血昆仑关</t>
-  </si>
-  <si>
-    <t>杨光远</t>
-  </si>
-  <si>
-    <t>马绍信</t>
-  </si>
-  <si>
-    <t>战争</t>
-  </si>
-  <si>
-    <t>新仙鹤神针</t>
-  </si>
-  <si>
-    <t>陈木胜</t>
-  </si>
-  <si>
-    <t>梁朝伟</t>
-  </si>
-  <si>
-    <t>武侠</t>
-  </si>
-  <si>
-    <t>平凡岁月的魅力</t>
-  </si>
-  <si>
-    <t>布兰特·席尔兹</t>
-  </si>
-  <si>
-    <t>凯丽·拉塞尔</t>
-  </si>
-  <si>
-    <t>爱情是什么</t>
-  </si>
-  <si>
-    <t>非常推荐</t>
-  </si>
-  <si>
-    <t>欲望的果实</t>
-  </si>
-  <si>
-    <t>詹路易吉·卡尔代罗内</t>
-  </si>
-  <si>
-    <t>加布里埃尔·费泽蒂 / 奥内拉·穆蒂</t>
-  </si>
-  <si>
-    <t>教室别恋</t>
-  </si>
-  <si>
-    <t>波·维德伯格</t>
-  </si>
-  <si>
-    <t>约翰·维德伯格</t>
-  </si>
-  <si>
-    <t>信天游</t>
-  </si>
-  <si>
-    <t>冯小宁</t>
-  </si>
-  <si>
-    <t>郭达</t>
-  </si>
-  <si>
-    <t>周恩来</t>
-  </si>
-  <si>
-    <t>丁荫楠</t>
-  </si>
-  <si>
-    <t>王铁成</t>
-  </si>
-  <si>
-    <t>与狼共舞</t>
-  </si>
-  <si>
-    <t>凯文•科斯特纳</t>
-  </si>
-  <si>
-    <t>西部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小巷名流 </t>
-  </si>
-  <si>
-    <t>从连文</t>
-  </si>
-  <si>
-    <t>葛建军 / 任伟民 / 孙才华</t>
-  </si>
-  <si>
-    <t>文革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巴山夜雨 </t>
-  </si>
-  <si>
-    <t>吴永刚 / 吴贻弓</t>
-  </si>
-  <si>
-    <t>李志舆 / 张瑜 / 林彬</t>
-  </si>
-  <si>
-    <t>文革后期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天云山传奇 </t>
-  </si>
-  <si>
-    <t>石维坚 / 施建岚 / 王馥荔</t>
-  </si>
-  <si>
-    <t>伤痕文学</t>
-  </si>
-  <si>
-    <t>西安事变</t>
-  </si>
-  <si>
-    <t>成荫</t>
-  </si>
-  <si>
-    <t>金安歌 / 辛静 / 孙飞虎</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>血战台儿庄</t>
-  </si>
-  <si>
-    <t>杨光远 / 翟俊杰</t>
-  </si>
-  <si>
-    <t>邵宏来 / 初国良 / 江化霖</t>
-  </si>
-  <si>
-    <t>政治宣传片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">悬崖之上 </t>
-  </si>
-  <si>
-    <t>张艺谋</t>
-  </si>
-  <si>
-    <t>张译 / 于和伟 / 秦海璐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无双 </t>
-  </si>
-  <si>
-    <t>庄文强</t>
-  </si>
-  <si>
-    <t xml:space="preserve">周润发 / 郭富城 / 张静初 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">埃及艳后 </t>
-  </si>
-  <si>
-    <t>约瑟夫·L·曼凯维奇</t>
-  </si>
-  <si>
-    <t>伊丽莎白·泰勒 / 理查德·伯顿 / 雷克斯·哈里森</t>
-  </si>
-  <si>
-    <t>历史传记</t>
-  </si>
-  <si>
-    <t>除暴</t>
-  </si>
-  <si>
-    <t>刘浩良</t>
-  </si>
-  <si>
-    <t>王千源 / 吴彦祖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白虎 </t>
-  </si>
-  <si>
-    <t>卡连·沙赫纳扎罗夫</t>
-  </si>
-  <si>
-    <t>阿列克谢·沃特考夫 / 维塔利·基什琴科</t>
-  </si>
-  <si>
-    <t>战争片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柏林之翼 </t>
-  </si>
-  <si>
-    <t>康斯坦丁·布罗斯洛夫</t>
-  </si>
-  <si>
-    <t>叶夫根尼· 安德罗波夫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">窃听风云 </t>
-  </si>
-  <si>
-    <t>麦兆辉 / 庄文强</t>
-  </si>
-  <si>
-    <t>刘青云 / 古天乐 / 吴彦祖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新报仇  </t>
-  </si>
-  <si>
-    <t>庄胤建</t>
-  </si>
-  <si>
-    <t>刘锡明 / 张丰毅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苦月亮 </t>
-  </si>
-  <si>
-    <t>罗曼·波兰斯基</t>
-  </si>
-  <si>
-    <t>彼德·考约特 / 艾玛纽尔·塞尼耶</t>
-  </si>
-  <si>
-    <t>爱情片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一树梨花压海棠 </t>
-  </si>
-  <si>
-    <t>阿德里安·莱恩</t>
-  </si>
-  <si>
-    <t>杰瑞米·艾恩斯 / 多米尼克·斯万</t>
-  </si>
-  <si>
-    <t>纳博科夫的小说</t>
-  </si>
-  <si>
-    <t xml:space="preserve">带珍珠耳环的少女 </t>
-  </si>
-  <si>
-    <t>彼得·韦柏</t>
-  </si>
-  <si>
-    <t>科林·费尔斯 / 斯嘉丽·约翰逊</t>
-  </si>
-  <si>
-    <t>维米尔传记</t>
-  </si>
-  <si>
-    <t xml:space="preserve">潜行 </t>
-  </si>
-  <si>
-    <t>关智耀</t>
-  </si>
-  <si>
-    <t>刘德华 / 林家栋 / 彭于晏</t>
-  </si>
-  <si>
-    <t>警匪片</t>
-  </si>
-  <si>
-    <t>《The Good, The Bad and The Ugly》（黄金三镖客）</t>
-  </si>
-  <si>
-    <t>赛尔乔·莱昂内</t>
-  </si>
-  <si>
-    <t>克林特·伊斯特伍德 / 伊莱·瓦拉赫 / 李·范·克里夫</t>
-  </si>
-  <si>
-    <t>西部片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">周处除三害 </t>
-  </si>
-  <si>
-    <t>黄精甫</t>
-  </si>
-  <si>
-    <t>阮经天</t>
-  </si>
-  <si>
-    <t>反邪教</t>
-  </si>
-  <si>
-    <t xml:space="preserve">裂战 </t>
-  </si>
-  <si>
-    <t>关越</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安志杰 / 释彦能 / 李梦 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">木乃伊归来 </t>
-  </si>
-  <si>
-    <t>斯蒂芬·索莫斯</t>
-  </si>
-  <si>
-    <t>布兰登·费舍 / 蕾切尔·薇兹 / 约翰·汉纳</t>
-  </si>
-  <si>
-    <t>奇幻动作片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三大队 </t>
-  </si>
-  <si>
-    <t>戴墨</t>
-  </si>
-  <si>
-    <t>张译 / 李晨 / 魏晨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">伏击 </t>
-  </si>
-  <si>
-    <t>Mark Burman</t>
-  </si>
-  <si>
-    <t>乔纳森·莱斯·梅耶斯 / 艾伦·艾克哈特</t>
-  </si>
-  <si>
-    <t>新威龙杀阵</t>
-  </si>
-  <si>
-    <t>道格·里曼</t>
-  </si>
-  <si>
-    <t>杰克·吉伦哈尔 / 康纳·麦格雷戈</t>
-  </si>
-  <si>
-    <t>金瓶风月</t>
-  </si>
-  <si>
-    <t>单立文、方玉婷</t>
-  </si>
-  <si>
-    <t>风月奇谭</t>
-  </si>
-  <si>
-    <t>王琛 / 刘午琪 / 贝蒂</t>
-  </si>
-  <si>
-    <t>爱奴</t>
-  </si>
-  <si>
-    <t>楚原</t>
-  </si>
-  <si>
-    <t>何莉莉 / 岳华 / 贝蒂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">为奴十二年 </t>
-  </si>
-  <si>
-    <t>史蒂夫·麦奎因</t>
-  </si>
-  <si>
-    <t>切瓦特·埃加福 / 迈克尔·法斯宾德</t>
-  </si>
-  <si>
-    <t>传记历史</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肖申克的救赎 </t>
-  </si>
-  <si>
-    <t>弗兰克·德拉邦特</t>
-  </si>
-  <si>
-    <t>蒂姆·罗宾斯 / 摩根·弗里曼</t>
-  </si>
-  <si>
-    <t>文艺片</t>
-  </si>
-  <si>
-    <t>罗马假日</t>
-  </si>
-  <si>
-    <t>威廉·惠勒</t>
-  </si>
-  <si>
-    <t>奥黛丽·赫本 / 格利高里·派克</t>
-  </si>
-  <si>
-    <t xml:space="preserve">午夜巴黎 </t>
-  </si>
-  <si>
-    <t>伍迪·艾伦</t>
-  </si>
-  <si>
-    <t>欧文·威尔逊 / 玛丽昂·歌迪亚 / 瑞秋·麦克亚当斯</t>
-  </si>
-  <si>
-    <t>法国艺术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">午夜巴塞罗那 </t>
-  </si>
-  <si>
-    <t>丽贝卡·豪尔 / 斯嘉丽·约翰逊 / 哈维尔·巴登</t>
-  </si>
-  <si>
-    <t>西班牙艺术</t>
-  </si>
-  <si>
-    <t>逃学威龙</t>
-  </si>
-  <si>
-    <t>陈嘉上</t>
-  </si>
-  <si>
-    <t>周星驰 / 张敏 / 吴孟达</t>
-  </si>
-  <si>
-    <t>功夫熊猫4</t>
-  </si>
-  <si>
-    <t>迈克·米切尔 / 斯蒂芬妮·斯汀</t>
-  </si>
-  <si>
-    <t>杰克·布莱克 / 奥卡菲娜</t>
-  </si>
-  <si>
-    <t>天注定</t>
-  </si>
-  <si>
-    <t>贾樟柯</t>
-  </si>
-  <si>
-    <t>姜武、王宝强</t>
-  </si>
-  <si>
-    <t>犯罪片</t>
-  </si>
-  <si>
-    <t>黑白迷宫</t>
-  </si>
-  <si>
-    <t>阚家伟</t>
-  </si>
-  <si>
-    <t>任达华 / 陈小春</t>
-  </si>
-  <si>
-    <t>哥斯拉大战金刚2</t>
-  </si>
-  <si>
-    <t>亚当·温加德</t>
-  </si>
-  <si>
-    <t>丽贝卡·豪尔 / 布莱恩·泰里·亨利</t>
-  </si>
-  <si>
-    <t>猩球崛起 4</t>
-  </si>
-  <si>
-    <t>韦斯·鲍尔</t>
-  </si>
-  <si>
-    <t>欧文·提格 / 弗蕾娅·艾伦</t>
-  </si>
-  <si>
-    <t>圣母 Benedetta</t>
-  </si>
-  <si>
-    <t>保罗·范霍文</t>
-  </si>
-  <si>
-    <t>维尔日妮·埃菲拉</t>
-  </si>
-  <si>
-    <t>枪火</t>
-  </si>
-  <si>
-    <t>杜琪峰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吴镇宇 / 任达华 / 黄秋生 </t>
-  </si>
-  <si>
-    <t>放逐</t>
-  </si>
-  <si>
-    <t>黄秋生 / 吴镇宇 / 张家辉</t>
-  </si>
-  <si>
-    <t>黑社会</t>
-  </si>
-  <si>
-    <t>任达华 / 梁家辉 / 古天乐</t>
-  </si>
-  <si>
-    <t>黑社会2：以和为贵</t>
-  </si>
-  <si>
-    <t>古天乐 / 任达华 / 张家辉 / 林家栋</t>
-  </si>
-  <si>
-    <t>黑金</t>
-  </si>
-  <si>
-    <t>麦当杰</t>
-  </si>
-  <si>
-    <t>刘德华 / 梁家辉</t>
-  </si>
-  <si>
-    <t>前哨</t>
-  </si>
-  <si>
-    <t>罗德·拉里</t>
-  </si>
-  <si>
-    <t>斯科特·伊斯特伍德 / 奥兰多·布鲁姆</t>
-  </si>
-  <si>
-    <t>血战摩苏尔</t>
-  </si>
-  <si>
-    <t>马修·迈克尔·卡纳汉</t>
-  </si>
-  <si>
-    <t>瓦利德·埃尔加迪</t>
-  </si>
-  <si>
-    <t>生化危机</t>
-  </si>
-  <si>
-    <t>保罗·安德森</t>
-  </si>
-  <si>
-    <t>米拉·乔沃维奇 / 米歇尔·罗德里格兹</t>
-  </si>
-  <si>
-    <t>扫黑·决不放弃</t>
-  </si>
-  <si>
-    <t>五百</t>
-  </si>
-  <si>
-    <t>肖央 / 余皑磊 / 范丞丞</t>
-  </si>
-  <si>
-    <t>金手指</t>
-  </si>
-  <si>
-    <t>梁朝伟 / 刘德华 / 蔡卓妍 / 任达华</t>
-  </si>
-  <si>
-    <t>艺术的逃难</t>
-  </si>
-  <si>
-    <t>丰子恺的逃难记录</t>
-  </si>
-  <si>
-    <t>隐者山河</t>
-  </si>
-  <si>
-    <t>郭旭锋</t>
-  </si>
-  <si>
-    <t>陈其钢</t>
-  </si>
-  <si>
-    <t>陈其钢的隐逸记录</t>
-  </si>
-  <si>
-    <t>一句顶一万句</t>
-  </si>
-  <si>
-    <t>刘雨霖</t>
-  </si>
-  <si>
-    <t>毛孩 / 李倩 / 刘蓓 / 范伟</t>
-  </si>
-  <si>
-    <t>改编自刘震云同名小说</t>
-  </si>
-  <si>
-    <t>变脸</t>
-  </si>
-  <si>
-    <t>朱旭 / 周任莹 / 赵志刚</t>
-  </si>
-  <si>
-    <t>艺术片</t>
-  </si>
-  <si>
-    <t>绝地追击</t>
-  </si>
-  <si>
-    <t>邱礼涛</t>
-  </si>
-  <si>
-    <t>欧豪 / 谷嘉诚 / 俞灏明</t>
-  </si>
-  <si>
-    <t>坚如磐石</t>
-  </si>
-  <si>
-    <t>雷佳音 / 张国立 / 于和伟 / 周冬雨</t>
-  </si>
-  <si>
-    <t>观看年份</t>
-  </si>
-  <si>
-    <t>剧名</t>
   </si>
 </sst>
 </file>
@@ -3438,7 +3441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" ht="62.9" customHeight="1">
+    <row r="46" ht="50.9" customHeight="1">
       <c r="A46" s="8">
         <v>2024</v>
       </c>
@@ -3948,7 +3951,9 @@
       <c r="F63" t="s" s="10">
         <v>223</v>
       </c>
-      <c r="G63" s="12"/>
+      <c r="G63" s="11">
+        <v>27000013</v>
+      </c>
       <c r="H63" t="s" s="10">
         <v>224</v>
       </c>
@@ -4593,7 +4598,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s" s="3">
         <v>6</v>
